--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5000</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>No Kartu</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Tumbang miwan</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>T.II/WH/0002</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,10 +518,10 @@
         <v>5000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -545,7 +551,63 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>55000</v>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>No Kartu</t>
   </si>
@@ -80,16 +80,10 @@
     <t>T.II/WH/0001</t>
   </si>
   <si>
-    <t>Yusuf Husain</t>
-  </si>
-  <si>
-    <t>Tumbang miwan</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>T.II/WH/0002</t>
+    <t>tina</t>
+  </si>
+  <si>
+    <t>jalan sapan</t>
   </si>
 </sst>
 </file>
@@ -429,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,10 +512,10 @@
         <v>5000</v>
       </c>
       <c r="G3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -551,63 +545,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
-      <c r="G4">
-        <v>5000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>60000</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>No Kartu</t>
   </si>
@@ -74,22 +74,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>T.II/WH/0001</t>
+    <t>002</t>
+  </si>
+  <si>
+    <t>T.II/WH/0002</t>
   </si>
   <si>
     <t>Yusuf Husain</t>
   </si>
   <si>
     <t>Tumbang miwan</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>T.II/WH/0002</t>
   </si>
 </sst>
 </file>
@@ -429,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,10 +512,10 @@
         <v>5000</v>
       </c>
       <c r="G3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -551,63 +545,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
-      <c r="G4">
-        <v>5000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>60000</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>No Kartu</t>
   </si>
@@ -74,16 +74,22 @@
     <t>Total</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>T.II/WH/0001</t>
+  </si>
+  <si>
+    <t>Yusuf Husain</t>
+  </si>
+  <si>
+    <t>Tumbang miwan</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
     <t>T.II/WH/0002</t>
-  </si>
-  <si>
-    <t>Yusuf Husain</t>
-  </si>
-  <si>
-    <t>Tumbang miwan</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,10 +518,10 @@
         <v>5000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -545,7 +551,63 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>55000</v>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <v>15000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>No Kartu</t>
   </si>
@@ -72,24 +72,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>T.II/WH/0001</t>
-  </si>
-  <si>
-    <t>Yusuf Husain</t>
-  </si>
-  <si>
-    <t>Tumbang miwan</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>T.II/WH/0002</t>
   </si>
 </sst>
 </file>
@@ -499,17 +481,17 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>50000</v>
@@ -521,7 +503,7 @@
         <v>10000</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -551,30 +533,30 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>115000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>50000</v>
       </c>
       <c r="F4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -607,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>70000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Data Simpanan.xlsx
+++ b/excel/Data Simpanan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>No Kartu</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>T.II/WH/0001</t>
+  </si>
+  <si>
+    <t>Tina Kurniana</t>
+  </si>
+  <si>
+    <t>Jalan Sapan</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,26 +493,26 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3">
         <v>50000</v>
       </c>
       <c r="F3">
-        <v>5000</v>
+        <v>800000</v>
       </c>
       <c r="G3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -533,63 +545,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>50000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>100000</v>
+        <v>850000</v>
       </c>
     </row>
   </sheetData>
